--- a/data/dados_prod_cana.xlsx
+++ b/data/dados_prod_cana.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Tratamento</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>CB_4176</t>
+  </si>
+  <si>
+    <t>CB_4069</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +426,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -489,7 +492,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -555,7 +558,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -621,7 +624,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>4</v>

--- a/data/dados_prod_cana.xlsx
+++ b/data/dados_prod_cana.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>4</v>

--- a/data/dados_prod_cana.xlsx
+++ b/data/dados_prod_cana.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>4</v>

--- a/data/dados_prod_cana.xlsx
+++ b/data/dados_prod_cana.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/dados_prod_cana.xlsx
+++ b/data/dados_prod_cana.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="2" r:id="rId1"/>
+    <sheet name="médias" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>Tratamento</t>
   </si>
@@ -51,14 +52,25 @@
   </si>
   <si>
     <t>CB_4069</t>
+  </si>
+  <si>
+    <t>Médias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,8 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,4 +676,95 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>